--- a/Results/Plot data/ipcc_ar6_figure_spm_gases.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_spm_gases.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-11-25 13:51:08</t>
+    <t xml:space="preserve">2022-01-13 13:19:49</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">gwp_ar5</t>
   </si>
   <si>
-    <t xml:space="preserve">gwp_ar5_fb</t>
+    <t xml:space="preserve">gwp_ar5_feedbacks</t>
   </si>
   <si>
     <t xml:space="preserve">gwp_ar6</t>
@@ -2493,7 +2493,7 @@
         <v>34.8784595978089</v>
       </c>
       <c r="K2" t="n">
-        <v>40.9442786582973</v>
+        <v>40.9442786582974</v>
       </c>
       <c r="L2" t="n">
         <v>56.5949100336498</v>
@@ -2642,7 +2642,7 @@
         <v>0.328755565003288</v>
       </c>
       <c r="J6" t="n">
-        <v>56.2661544686465</v>
+        <v>56.2661544686466</v>
       </c>
       <c r="K6" t="n">
         <v>56.9236655986531</v>
@@ -2683,7 +2683,7 @@
         <v>34.8784595978089</v>
       </c>
       <c r="K7" t="n">
-        <v>40.9442786582973</v>
+        <v>40.9442786582974</v>
       </c>
       <c r="L7" t="n">
         <v>59.1157100334592</v>
@@ -2832,7 +2832,7 @@
         <v>0.350190149599639</v>
       </c>
       <c r="J11" t="n">
-        <v>58.7655198838595</v>
+        <v>58.7655198838596</v>
       </c>
       <c r="K11" t="n">
         <v>59.4659001830588</v>
@@ -2873,7 +2873,7 @@
         <v>34.8784595978089</v>
       </c>
       <c r="K12" t="n">
-        <v>40.9442786582973</v>
+        <v>40.9442786582974</v>
       </c>
       <c r="L12" t="n">
         <v>61.8929936007358</v>
@@ -2949,7 +2949,7 @@
         <v>53.7049309117575</v>
       </c>
       <c r="K14" t="n">
-        <v>61.5808077141327</v>
+        <v>61.5808077141328</v>
       </c>
       <c r="L14" t="n">
         <v>61.8929936007358</v>
@@ -3063,7 +3063,7 @@
         <v>34.8784595978089</v>
       </c>
       <c r="K17" t="n">
-        <v>40.9442786582973</v>
+        <v>40.9442786582974</v>
       </c>
       <c r="L17" t="n">
         <v>59.0906248276123</v>
@@ -3136,7 +3136,7 @@
         <v>3.16955386482619</v>
       </c>
       <c r="J19" t="n">
-        <v>51.9120336602475</v>
+        <v>51.9120336602476</v>
       </c>
       <c r="K19" t="n">
         <v>58.2511413898999</v>
@@ -5337,10 +5337,10 @@
         <v>1.0577779105851</v>
       </c>
       <c r="D124" t="n">
-        <v>1.37511128376062</v>
+        <v>1.37511128376063</v>
       </c>
       <c r="E124" t="n">
-        <v>0.740444537409567</v>
+        <v>0.740444537409568</v>
       </c>
     </row>
     <row r="125">
